--- a/excel/2017.xlsx
+++ b/excel/2017.xlsx
@@ -679,7 +679,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>שר הילדים / לאה גולדברג; קריינות: נתלי פיינשטיין.,שר הילדים / לאה גולדברג ; איורים: ניב תשבי ; עריכה: נרי אלומה.</t>
+          <t>שר הילדים / לאה גולדברג ; איורים: ניב תשבי ; עריכה: נרי אלומה.,שר הילדים / לאה גולדברג; קריינות: נתלי פיינשטיין.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -689,12 +689,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NNL_ALEPH71270218760005171,NNL_ALEPH21181983700005171</t>
+          <t>NNL_ALEPH21181983700005171,NNL_ALEPH71270218760005171</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH71270218760005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21181983700005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21181983700005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH71270218760005171</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -714,17 +714,17 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1 מקור מקוון.,23 עמודים לא ממוספרים : איורים צבעוניים ; 28 ס"מ.</t>
+          <t>23 עמודים לא ממוספרים : איורים צבעוניים ; 28 ס"מ.,1 מקור מקוון.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>20160101,20170101</t>
+          <t>20170101,20160101</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>בני-ברק : ספרית פועלים - הקיבוץ המאוחד,תל אביב : iCast</t>
+          <t>תל אביב : iCast,בני-ברק : ספרית פועלים - הקיבוץ המאוחד</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>book,audio</t>
+          <t>audio,book</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -830,7 +830,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>בתיה לא עפה / רקפת זיו-לי; קריינות: רקפת זיו-לי.,בתיה לא עפה / רקפת זיו-לי ; איורים: אביאל בסיל ; עריכה: נרי אלומה.</t>
+          <t>בתיה לא עפה / רקפת זיו-לי ; איורים: אביאל בסיל ; עריכה: נרי אלומה.,בתיה לא עפה / רקפת זיו-לי; קריינות: רקפת זיו-לי.</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -870,12 +870,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>20160101,20150101</t>
+          <t>20150101,20160101</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>בני ברק : ספרית פועלים,תל אביב : iCast</t>
+          <t>תל אביב : iCast,בני ברק : ספרית פועלים</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -885,17 +885,17 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>990048847180205171,990038501600205171</t>
+          <t>990038501600205171,990048847180205171</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>book,audio</t>
+          <t>audio,book</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>The National Library of Israel,$$VThe National Library of Israel$$ONNL_ALEPH21225497670005171</t>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21225497670005171,The National Library of Israel</t>
         </is>
       </c>
     </row>
@@ -994,7 +994,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>19880101,20130101</t>
+          <t>20130101,19880101</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1105,7 +1105,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>האי הסודי שלי / כתב טימותי נפמן ; איירה שרה וורברטון ; מאנגלית - חגי ברקת.,האי הסודי שלי / כתב: טימותי נפמן ; אירה: שרה וורברטון.</t>
+          <t>האי הסודי שלי / כתב: טימותי נפמן ; אירה: שרה וורברטון.,האי הסודי שלי / כתב טימותי נפמן ; איירה שרה וורברטון ; מאנגלית - חגי ברקת.</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1115,7 +1115,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21266723740005171,NNL_ALEPH21171946400005171</t>
+          <t>NNL_ALEPH21171946400005171,NNL_ALEPH21266723740005171</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1140,12 +1140,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>[26] עמודים : איורים צבעוניים ; 27 ס"מ.,18 עמודים לא ממוספרים : איורים צבעוניים ; 19 ס"מ.</t>
+          <t>18 עמודים לא ממוספרים : איורים צבעוניים ; 19 ס"מ.,[26] עמודים : איורים צבעוניים ; 27 ס"מ.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>[קרית גת] : דני ספרים הוצאה לאור,קריית גת : דני ספרים</t>
+          <t>קריית גת : דני ספרים,[קרית גת] : דני ספרים הוצאה לאור</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1276,12 +1276,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>תנין קטן ורגש לו גדול / דניאלה קולוט ; תרגם מגרמנית: דובי לנץ.,תנין קטן ורגש לו גדול / דניאלה קולוט ; מגרמנית - דובי לנץ.</t>
+          <t>תנין קטן ורגש לו גדול / דניאלה קולוט ; מגרמנית - דובי לנץ.,תנין קטן ורגש לו גדול / דניאלה קולוט ; תרגם מגרמנית: דובי לנץ.</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>לנץ, דובי, 1947-2023  $$Qלנץ, דובי, 1947-2023,לנץ, דובי, 1947-2023  (מתרגם)  $$Qלנץ, דובי, 1947-2023</t>
+          <t>לנץ, דובי, 1947-2023  (מתרגם)  $$Qלנץ, דובי, 1947-2023,לנץ, דובי, 1947-2023  $$Qלנץ, דובי, 1947-2023</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1296,12 +1296,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>קולוט-פריש, דניאלה$$Qקולוט-פריש, דניאלה,קולוט-פריש, דניאלה מחבר$$Qקולוט-פריש, דניאלה</t>
+          <t>קולוט-פריש, דניאלה מחבר$$Qקולוט-פריש, דניאלה,קולוט-פריש, דניאלה$$Qקולוט-פריש, דניאלה</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Children's stories -- Translations into Hebrew,Children's stories, German -- Translations into Hebrew; Crocodiles -- Juvenile fiction; Giraffe -- Juvenile fiction; Board books</t>
+          <t>Children's stories, German -- Translations into Hebrew; Crocodiles -- Juvenile fiction; Giraffe -- Juvenile fiction; Board books,Children's stories -- Translations into Hebrew</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>$$VThe National Library of Israel$$ONNL_ALEPH21178527970005171,The National Library of Israel</t>
+          <t>The National Library of Israel,$$VThe National Library of Israel$$ONNL_ALEPH21178527970005171</t>
         </is>
       </c>
     </row>
@@ -1395,7 +1395,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>מושב בן שמן : כתר ספרים ; כנפיים הוצאה לאור,ירושלים : כתר ספרים ; כנפיים הוצאה לאור</t>
+          <t>ירושלים : כתר ספרים ; כנפיים הוצאה לאור,מושב בן שמן : כתר ספרים ; כנפיים הוצאה לאור</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1415,7 +1415,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$$VThe National Library of Israel$$ONNL_ALEPH21203777900005171,$$VThe National Library of Israel$$ONNL_ALEPH21277602080005171</t>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21277602080005171,$$VThe National Library of Israel$$ONNL_ALEPH21203777900005171</t>
         </is>
       </c>
     </row>
@@ -1704,17 +1704,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1 מקור מקוון.,[2], 16, [2] עמודים : איורים (אחד צבעוני) ; 17 ס"מ.</t>
+          <t>[2], 16, [2] עמודים : איורים (אחד צבעוני) ; 17 ס"מ.,1 מקור מקוון.</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>19910101,20170101</t>
+          <t>20170101,19910101</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>יד בנימין : מתוך אהבתו,תל אביב : iCast</t>
+          <t>תל אביב : iCast,יד בנימין : מתוך אהבתו</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -2301,7 +2301,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>סליקטר, גלעד, 1977-  (מאייר)  $$Qסליקטר, גלעד, 1977-,בר נוי, ענת  (דובר)  $$Qבר נוי, ענת</t>
+          <t>בר נוי, ענת  (דובר)  $$Qבר נוי, ענת,סליקטר, גלעד, 1977-  (מאייר)  $$Qסליקטר, גלעד, 1977-</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21229900110005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH71270285130005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH71270285130005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21229900110005171</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -2356,7 +2356,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>book,audio</t>
+          <t>audio,book</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -2368,7 +2368,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ירוס הולכת לירוסלם / בת עמי מלניק; קריינות: בת עמי מלניק.,ירוס הולכת לירוסלם / כתבה: בת-עמי מלניק ; אירה: מורן יוגב ; עריכה ועריכת לשון: תומר קרמן ויצחק רפפורט.</t>
+          <t>ירוס הולכת לירוסלם / כתבה: בת-עמי מלניק ; אירה: מורן יוגב ; עריכה ועריכת לשון: תומר קרמן ויצחק רפפורט.,ירוס הולכת לירוסלם / בת עמי מלניק; קריינות: בת עמי מלניק.</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2403,7 +2403,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1 מקור מקוון.,30 עמודים לא ממוספרים : איורים צבעוניים ; 23 ס"מ.</t>
+          <t>30 עמודים לא ממוספרים : איורים צבעוניים ; 23 ס"מ.,1 מקור מקוון.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -2413,7 +2413,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>תל אביב : דרור לנפש,תל אביב : iCast</t>
+          <t>תל אביב : iCast,תל אביב : דרור לנפש</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -2423,12 +2423,12 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>990048848000205171,990038827570205171</t>
+          <t>990038827570205171,990048848000205171</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>book,audio</t>
+          <t>audio,book</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -2554,22 +2554,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>סידון מספר אנדרסן / כתב אפרים סידון ; מספר - איציק וינגרטן.,סידון מספר אנדרסן / כתב אפרים סידון ; ציירו דודו גבע ותרצה ולד.</t>
+          <t>סידון מספר אנדרסן / כתב אפרים סידון ; ציירו דודו גבע ותרצה ולד.,סידון מספר אנדרסן / כתב אפרים סידון ; מספר - איציק וינגרטן.</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ויגרטין, יצחק, 1951-  (דובר)  $$Qויגרטין, יצחק, 1951-,גבע, דודו, 1950-2005  $$Qגבע, דודו, 1950-2005</t>
+          <t>גבע, דודו, 1950-2005  $$Qגבע, דודו, 1950-2005,ויגרטין, יצחק, 1951-  (דובר)  $$Qויגרטין, יצחק, 1951-</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>NNL_ALEPH11356187230005171,NNL_ALEPH21283937880005171</t>
+          <t>NNL_ALEPH21283937880005171,NNL_ALEPH11356187230005171</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH11356187230005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21283937880005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21283937880005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH11356187230005171</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -2589,7 +2589,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>1 מקור מקוון.,92, [1] עמודים : איורים צבעוניים ; 22 X 28 ס"מ.</t>
+          <t>92, [1] עמודים : איורים צבעוניים ; 22 X 28 ס"מ.,1 מקור מקוון.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -2614,7 +2614,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>book,audio</t>
+          <t>audio,book</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -2626,7 +2626,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>תולעים ביום ובלילה / טרוי קאמינגס ; מאנגלית: רונית רוקאס.,מתקפת הבלונים הבריונים / טרוי קאמינגס ; מאנגלית: רונית רוקאס ; עורכת אחראית: רונית רוקאס.</t>
+          <t>מתקפת הבלונים הבריונים / טרוי קאמינגס ; מאנגלית: רונית רוקאס ; עורכת אחראית: רונית רוקאס.,תולעים ביום ובלילה / טרוי קאמינגס ; מאנגלית: רונית רוקאס.</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2636,12 +2636,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21199726660005171,NNL_ALEPH21250316680005171</t>
+          <t>NNL_ALEPH21250316680005171,NNL_ALEPH21199726660005171</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21250316680005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21199726660005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21199726660005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21250316680005171</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2651,7 +2651,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Children's stories, American -- 21st century; Children's stories -- Translations into Hebrew; Monsters -- Juvenile fiction; Worms -- Juvenile fiction; Elementary schools -- Juvenile literature; Fishes -- Juvenile fiction,Children's stories, American -- 21st century; Children's stories -- Translations into Hebrew; Monsters -- Juvenile fiction; Elementary schools -- Juvenile literature</t>
+          <t>Children's stories, American -- 21st century; Children's stories -- Translations into Hebrew; Monsters -- Juvenile fiction; Elementary schools -- Juvenile literature,Children's stories, American -- 21st century; Children's stories -- Translations into Hebrew; Monsters -- Juvenile fiction; Worms -- Juvenile fiction; Elementary schools -- Juvenile literature; Fishes -- Juvenile fiction</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -2666,12 +2666,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>20160101,20150101</t>
+          <t>20150101,20160101</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>ירושלים : כתר ספרים ; כנפיים,ירושלים : כתר</t>
+          <t>ירושלים : כתר,ירושלים : כתר ספרים ; כנפיים</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2691,7 +2691,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>$$VThe National Library of Israel$$ONNL_ALEPH21250316680005171,$$VThe National Library of Israel$$ONNL_ALEPH21199726660005171</t>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21199726660005171,$$VThe National Library of Israel$$ONNL_ALEPH21250316680005171</t>
         </is>
       </c>
     </row>
@@ -2833,6 +2833,11 @@
       <c r="G26" t="inlineStr">
         <is>
           <t>https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE202473692</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>19050101</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -3037,7 +3042,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21222983950005171,NNL_ALEPH11375561380005171</t>
+          <t>NNL_ALEPH11375561380005171,NNL_ALEPH21222983950005171</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -3067,12 +3072,12 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>20160101,20150101</t>
+          <t>20150101,20160101</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>[בני ברק] : הוצאת הקיבוץ המאוחד,תל אביב : iCast</t>
+          <t>תל אביב : iCast,[בני ברק] : הוצאת הקיבוץ המאוחד</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -3082,12 +3087,12 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>990048845110205171,990038534510205171</t>
+          <t>990038534510205171,990048845110205171</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>book,audio</t>
+          <t>audio,book</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -3104,7 +3109,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ויסמן, שירלי  (מאייר)  $$Qויסמן, שירלי,יהושע (מחבר הקומיקסים)  (מחבר)  $$Qיהושע (מחבר הקומיקסים)</t>
+          <t>יהושע (מחבר הקומיקסים)  (מחבר)  $$Qיהושע (מחבר הקומיקסים),ויסמן, שירלי  (מאייר)  $$Qויסמן, שירלי</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -3133,7 +3138,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>קרנשו / קתרין אפלגייט ; מאנגלית: שרון פרמינגר.,מכתב מקרנשאו אודות בקשת סעיד עבדין.</t>
+          <t>מכתב מקרנשאו אודות בקשת סעיד עבדין.,קרנשו / קתרין אפלגייט ; מאנגלית: שרון פרמינגר.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -3148,7 +3153,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21182678630005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ARCHIVE_AL71395855290005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ARCHIVE_AL71395855290005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21182678630005171</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -3193,12 +3198,12 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>book,archive</t>
+          <t>archive,book</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>The National Library of Israel,$$VThe National Library of Israel$$ONNL_ALEPH21182678630005171</t>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21182678630005171,The National Library of Israel</t>
         </is>
       </c>
     </row>
@@ -3324,7 +3329,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>לראות בגובה העיניים / עפרה גלברט-אבני ; איורים: נורית צרפתי ; עורכת: יונה טפר.,לראות בגובה העיניים / עפרה גלברט-אבני; קריינות: יערה פלציג.</t>
+          <t>לראות בגובה העיניים / עפרה גלברט-אבני; קריינות: יערה פלציג.,לראות בגובה העיניים / עפרה גלברט-אבני ; איורים: נורית צרפתי ; עורכת: יונה טפר.</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -3334,7 +3339,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NNL_ALEPH11375584080005171,NNL_ALEPH21265435220005171</t>
+          <t>NNL_ALEPH21265435220005171,NNL_ALEPH11375584080005171</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -3369,7 +3374,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>[בני ברק] : הוצאת הקיבוץ המאוחד,תל אביב : iCast</t>
+          <t>תל אביב : iCast,[בני ברק] : הוצאת הקיבוץ המאוחד</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -3384,12 +3389,12 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>book,audio</t>
+          <t>audio,book</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>The National Library of Israel,$$VThe National Library of Israel$$ONNL_ALEPH21265435220005171</t>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21265435220005171,The National Library of Israel</t>
         </is>
       </c>
     </row>
@@ -3419,14 +3424,9 @@
           <t>Manga (Comic books)</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE8788541</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>1 קלטת וידאו (כ-42 דקות) : קול, צבע ; 1/2 אינץ'</t>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>19760101</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -3468,12 +3468,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>דאל, רואלד, 1916-1990$$Qדאל, רואלד, 1916-1990,דאל, רואלד, 1916-1990 מחבר$$Qדאל, רואלד, 1916-1990</t>
+          <t>דאל, רואלד, 1916-1990 מחבר$$Qדאל, רואלד, 1916-1990,דאל, רואלד, 1916-1990$$Qדאל, רואלד, 1916-1990</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12304118290005171,https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12304816390005171</t>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12304816390005171,https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12304118290005171</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -3490,7 +3490,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>סופי והפינגווינים / אדוורד ואן דה ונדל ; איורים: פלור דה חודה ; קומיקס מצולמים: איפה דריסן, וילם סטם ; מהולנדית: עירית גולן ; עריכת תרגום: יעל שכנאי.,סופי והפינגווינים / אדוורד ואן דה ונדל; קריינות: נתלי פיינשטיין.</t>
+          <t>סופי והפינגווינים / אדוורד ואן דה ונדל; קריינות: נתלי פיינשטיין.,סופי והפינגווינים / אדוורד ואן דה ונדל ; איורים: פלור דה חודה ; קומיקס מצולמים: איפה דריסן, וילם סטם ; מהולנדית: עירית גולן ; עריכת תרגום: יעל שכנאי.</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -3505,7 +3505,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH11375552360005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21261442090005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21261442090005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH11375552360005171</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -3525,7 +3525,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>173 עמודים : איורים צבעוניים ; 21 ס"מ.,1 מקור מקוון.</t>
+          <t>1 מקור מקוון.,173 עמודים : איורים צבעוניים ; 21 ס"מ.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -3535,7 +3535,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>תל אביב : משכל - הוצאה לאור מיסודן של ידיעות אחרונות וספרי חמד,תל אביב : iCast</t>
+          <t>תל אביב : iCast,תל אביב : משכל - הוצאה לאור מיסודן של ידיעות אחרונות וספרי חמד</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -3545,17 +3545,17 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>990038897500205171,990048846020205171</t>
+          <t>990048846020205171,990038897500205171</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>book,audio</t>
+          <t>audio,book</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>The National Library of Israel,$$VThe National Library of Israel$$ONNL_ALEPH21261442090005171</t>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21261442090005171,The National Library of Israel</t>
         </is>
       </c>
     </row>
@@ -3706,7 +3706,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>מלול, אופיר  (מפיק מעבד מוזיקלי)  $$Qמלול, אופיר,אליאב, טליה, 1976-  (מבצע מעבד מוזיקלי מתרגם)  $$Qאליאב, טליה, 1976-</t>
+          <t>אליאב, טליה, 1976-  (מבצע מעבד מוזיקלי מתרגם)  $$Qאליאב, טליה, 1976-,מלול, אופיר  (מפיק מעבד מוזיקלי)  $$Qמלול, אופיר</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -3731,12 +3731,12 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>book,reccomm</t>
+          <t>reccomm,book</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>The National Library of Israel,The National Library of Israel - Music Library</t>
+          <t>The National Library of Israel - Music Library,The National Library of Israel</t>
         </is>
       </c>
     </row>
@@ -3748,12 +3748,12 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>20160101,20060101</t>
+          <t>20060101,20160101</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>book,audio</t>
+          <t>audio,book</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -3822,12 +3822,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NNL_ALEPH71270217090005171,NNL_ALEPH21167304320005171</t>
+          <t>NNL_ALEPH21167304320005171,NNL_ALEPH71270217090005171</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH71270217090005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21167304320005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21167304320005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH71270217090005171</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -3852,7 +3852,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>[בני ברק] : הקיבוץ המאוחד,תל אביב : iCast</t>
+          <t>תל אביב : iCast,[בני ברק] : הקיבוץ המאוחד</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -3867,7 +3867,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>book,audio</t>
+          <t>audio,book</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -3884,7 +3884,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>סחייק-אלעני, גאולה מחבר$$Qסחייק-אלעני, גאולה,סחייק-אלעני, גאולה$$Qסחייק-אלעני, גאולה</t>
+          <t>סחייק-אלעני, גאולה$$Qסחייק-אלעני, גאולה,סחייק-אלעני, גאולה מחבר$$Qסחייק-אלעני, גאולה</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -3894,7 +3894,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12302652210005171,https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12303362720005171</t>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12303362720005171,https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12302652210005171</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -3909,7 +3909,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>book,audio</t>
+          <t>audio,book</t>
         </is>
       </c>
     </row>
@@ -4010,7 +4010,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ככה אבא שלי אמר / צביה פורת ; איורים: כריסטינה קדמון ; עורכת הספר: עפרה גלברט-אבני ; עריכה: יהונתן פורת.,ככה אבא שלי אמר / צביה פורת; קריינות: צביה פורת.</t>
+          <t>ככה אבא שלי אמר / צביה פורת; קריינות: צביה פורת.,ככה אבא שלי אמר / צביה פורת ; איורים: כריסטינה קדמון ; עורכת הספר: עפרה גלברט-אבני ; עריכה: יהונתן פורת.</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4045,17 +4045,17 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>79 עמודים : איורים ; 21 ס"מ.,1 מקור מקוון.</t>
+          <t>1 מקור מקוון.,79 עמודים : איורים ; 21 ס"מ.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>20170101,20150101</t>
+          <t>20150101,20170101</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>תל-אביב : משכל הוצאה לאור,תל אביב : iCast</t>
+          <t>תל אביב : iCast,תל-אביב : משכל הוצאה לאור</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -4070,29 +4070,29 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>book,audio</t>
+          <t>audio,book</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>The National Library of Israel,$$VThe National Library of Israel$$ONNL_ALEPH21266530550005171</t>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21266530550005171,The National Library of Israel</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ג'לסומינו בארץ השקרנים / ג'אני רודארי ; תרגם ז' אריאל.,ג'לסומינו בארץ השקרנים / ג'אני רודארי ; תרגמה: סביונה מאנה ; איורים: אביאל בסיל.</t>
+          <t>ג'לסומינו בארץ השקרנים / ג'אני רודארי ; תרגמה: סביונה מאנה ; איורים: אביאל בסיל.,ג'לסומינו בארץ השקרנים / ג'אני רודארי ; תרגם ז' אריאל.</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>מאנה, סביונה  (מתרגם)  $$Qמאנה, סביונה,אריאל, שלמה זלמן, 1895-1970  $$Qאריאל, שלמה זלמן, 1895-1970</t>
+          <t>אריאל, שלמה זלמן, 1895-1970  $$Qאריאל, שלמה זלמן, 1895-1970,מאנה, סביונה  (מתרגם)  $$Qמאנה, סביונה</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21189283400005171,NNL_ALEPH21280243370005171</t>
+          <t>NNL_ALEPH21280243370005171,NNL_ALEPH21189283400005171</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -4107,7 +4107,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Children's stories -- Translations into Hebrew,Children's stories, Italian -- 21st century; Children's stories -- Translations into Hebrew; Truthfulness and falsehood -- Juvenile fiction</t>
+          <t>Children's stories, Italian -- 21st century; Children's stories -- Translations into Hebrew; Truthfulness and falsehood -- Juvenile fiction,Children's stories -- Translations into Hebrew</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -4127,7 +4127,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>קיבוץ בית ניר : אוקיינוס הוצאה לאור ; מושב בן-שמן : מודן הוצאה לאור,[תל אביב] : מסדה</t>
+          <t>[תל אביב] : מסדה,קיבוץ בית ניר : אוקיינוס הוצאה לאור ; מושב בן-שמן : מודן הוצאה לאור</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -4147,7 +4147,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>The National Library of Israel,$$VThe National Library of Israel$$ONNL_ALEPH21280243370005171</t>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21280243370005171,The National Library of Israel</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>גלברט-אבני, עפרה, 1947-  (עורך)  $$Qגלברט-אבני, עפרה, 1947-,צדוק, ארז (מאייר), 1986-  (מאייר)  $$Qצדוק, ארז (מאייר), 1986-</t>
+          <t>צדוק, ארז (מאייר), 1986-  (מאייר)  $$Qצדוק, ארז (מאייר), 1986-,גלברט-אבני, עפרה, 1947-  (עורך)  $$Qגלברט-אבני, עפרה, 1947-</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -4179,7 +4179,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Children's stories, Hebrew -- 21st century; Magic -- Juvenile fiction; Adventure and adventurers -- Fiction -- Juvenile fiction; Grandparent and child -- Juvenile fiction; Fantasy -- Juvenile fiction,Children's stories, Hebrew -- 21st century; Grandparent and child -- Juvenile fiction; Grandfathers -- Juvenile fiction; Magic -- Juvenile fiction</t>
+          <t>Children's stories, Hebrew -- 21st century; Grandparent and child -- Juvenile fiction; Grandfathers -- Juvenile fiction; Magic -- Juvenile fiction,Children's stories, Hebrew -- 21st century; Magic -- Juvenile fiction; Adventure and adventurers -- Fiction -- Juvenile fiction; Grandparent and child -- Juvenile fiction; Fantasy -- Juvenile fiction</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -4194,7 +4194,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>קריית גת : דני ספרים הוצאה לאור ; אלומות הוצאה לאור,קרית גת : דני ספרים הוצאה לאור ; תל אביב : אלומות הוצאה לאור</t>
+          <t>קרית גת : דני ספרים הוצאה לאור ; תל אביב : אלומות הוצאה לאור,קריית גת : דני ספרים הוצאה לאור ; אלומות הוצאה לאור</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -4204,7 +4204,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>990050765420205171,990038752310205171</t>
+          <t>990038752310205171,990050765420205171</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -4214,7 +4214,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>$$VThe National Library of Israel$$ONNL_ALEPH21234455710005171,$$VThe National Library of Israel$$ONNL_ALEPH21289978690005171</t>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21289978690005171,$$VThe National Library of Israel$$ONNL_ALEPH21234455710005171</t>
         </is>
       </c>
     </row>
@@ -4317,7 +4317,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>גוטמן, שרי  (עורך)  $$Qגוטמן, שרי,שטיינבך, יהודה  $$Qשטיינבך, יהודה</t>
+          <t>שטיינבך, יהודה  $$Qשטיינבך, יהודה,גוטמן, שרי  (עורך)  $$Qגוטמן, שרי</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -4327,7 +4327,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12305071450005171,https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE36242723</t>
+          <t>https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE36242723,https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12305071450005171</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -4342,7 +4342,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>book,audio</t>
+          <t>audio,book</t>
         </is>
       </c>
     </row>
@@ -4466,9 +4466,9 @@
           <t>ישמעאל בן אברהם יצחק, הכהן, 1723-1811$$Qישמעאל בן אברהם יצחק, הכהן, 1723-1811</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Responsa; Inheritance and succession (Jewish law)</t>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>20120101</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>מאיר, זיו זוהר, 1974-  (דובר)  $$Qמאיר, זיו זוהר, 1974-,פדן, יחיעם, 1947-2021  (מתרגם)  $$Qפדן, יחיעם, 1947-2021</t>
+          <t>פדן, יחיעם, 1947-2021  (מתרגם)  $$Qפדן, יחיעם, 1947-2021,מאיר, זיו זוהר, 1974-  (דובר)  $$Qמאיר, זיו זוהר, 1974-</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -4641,7 +4641,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ז'יונו, ז'ן, 1895-1970$$Qז'יונו, ז'ן, 1895-1970,ז'יונו, ז'ן, 1895-1970 מחבר$$Qז'יונו, ז'ן, 1895-1970</t>
+          <t>ז'יונו, ז'ן, 1895-1970 מחבר$$Qז'יונו, ז'ן, 1895-1970,ז'יונו, ז'ן, 1895-1970$$Qז'יונו, ז'ן, 1895-1970</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -4661,7 +4661,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>book,audio</t>
+          <t>audio,book</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -4807,7 +4807,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>book,audio</t>
+          <t>audio,book</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -4876,17 +4876,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Shtrubel, Marty  (composer lyricist)  $$QShtrubel, Marty,שווימר, יותם, 1985-  (עורך)  $$Qשווימר, יותם, 1985-</t>
+          <t>שווימר, יותם, 1985-  (עורך)  $$Qשווימר, יותם, 1985-,Shtrubel, Marty  (composer lyricist)  $$QShtrubel, Marty</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>סלמן, רועי מחבר דובר$$Qסלמן, רועי,סלמן, רועי מחבר$$Qסלמן, רועי</t>
+          <t>סלמן, רועי מחבר$$Qסלמן, רועי,סלמן, רועי מחבר דובר$$Qסלמן, רועי</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Songs, English -- Israel; Songs, Hebrew -- Israel,Children's stories, Hebrew -- 21st century; Children -- Family relationships -- Juvenile fiction; Bereavement in children -- Juvenile fiction; Teenagers -- Juvenile fiction</t>
+          <t>Children's stories, Hebrew -- 21st century; Children -- Family relationships -- Juvenile fiction; Bereavement in children -- Juvenile fiction; Teenagers -- Juvenile fiction,Songs, English -- Israel; Songs, Hebrew -- Israel</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -5012,7 +5012,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21264748150005171,NNL_ALEPH21227789410005171</t>
+          <t>NNL_ALEPH21227789410005171,NNL_ALEPH21264748150005171</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -5022,12 +5022,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>פייל, הווארד, 1853-1911 מחבר$$Qפייל, הווארד, 1853-1911,פייל, הווארד, 1853-1911$$Qפייל, הווארד, 1853-1911</t>
+          <t>פייל, הווארד, 1853-1911$$Qפייל, הווארד, 1853-1911,פייל, הווארד, 1853-1911 מחבר$$Qפייל, הווארד, 1853-1911</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Children's stories, English -- Translations into Hebrew,Robin Hood (Legendary character) -- Juvenile literature; Children's stories, American -- 19th century; Children's stories -- Translations into Hebrew</t>
+          <t>Robin Hood (Legendary character) -- Juvenile literature; Children's stories, American -- 19th century; Children's stories -- Translations into Hebrew,Children's stories, English -- Translations into Hebrew</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -5037,12 +5037,12 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>205 עמודים ; 21 ס"מ.,190, [2] עמודים : איורים ; 23 ס"מ.</t>
+          <t>190, [2] עמודים : איורים ; 23 ס"מ.,205 עמודים ; 21 ס"מ.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>19890101,20150101</t>
+          <t>20150101,19890101</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -5057,7 +5057,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>990038767070205171,990010951140205171</t>
+          <t>990010951140205171,990038767070205171</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -5265,7 +5265,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>המפה של כל המקומות / קארי ראיין, ג'ון פארקי דיוויס ; מאנגלית: נעה סמלסון.,העיר הצמאה / קארי ראיין וג'ון פארקי דיוויס ; איורים: טוד האריס ; מאנגלית: נעה בן פורת.</t>
+          <t>העיר הצמאה / קארי ראיין וג'ון פארקי דיוויס ; איורים: טוד האריס ; מאנגלית: נעה בן פורת.,המפה של כל המקומות / קארי ראיין, ג'ון פארקי דיוויס ; מאנגלית: נעה סמלסון.</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -5275,7 +5275,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21277600080005171,NNL_ALEPH21217720790005171</t>
+          <t>NNL_ALEPH21217720790005171,NNL_ALEPH21277600080005171</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -5290,12 +5290,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Children's stories, American -- 21st century; Children's stories -- Translations into Hebrew; Pirates -- Juvenile fiction; Wizards -- Juvenile fiction,Children's stories, American -- 21st century; Children's stories, English -- Translations into Hebrew; Adventure stories; Pirates -- Juvenile fiction; Wizards -- Juvenile fiction</t>
+          <t>Children's stories, American -- 21st century; Children's stories, English -- Translations into Hebrew; Adventure stories; Pirates -- Juvenile fiction; Wizards -- Juvenile fiction,Children's stories, American -- 21st century; Children's stories -- Translations into Hebrew; Pirates -- Juvenile fiction; Wizards -- Juvenile fiction</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12304876730005171,https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12304196550005171</t>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12304196550005171,https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12304876730005171</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>990039486720205171,990038441580205171</t>
+          <t>990038441580205171,990039486720205171</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -5342,17 +5342,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>צור, רותם  (דובר)  $$Qצור, רותם,גובר, יעל  (עורך)  $$Qגובר, יעל</t>
+          <t>גובר, יעל  (עורך)  $$Qגובר, יעל,צור, רותם  (דובר)  $$Qצור, רותם</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21229929680005171,NNL_ALEPH11375561980005171</t>
+          <t>NNL_ALEPH11375561980005171,NNL_ALEPH21229929680005171</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH11375561980005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21229929680005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21229929680005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH11375561980005171</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -5372,7 +5372,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>1 מקור מקוון.,251 עמודים, 2 עמודים לא ממוספרים ; 21 ס"מ.</t>
+          <t>251 עמודים, 2 עמודים לא ממוספרים ; 21 ס"מ.,1 מקור מקוון.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -5382,7 +5382,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>אור יהודה : כנרת, זמורה-ביתן, מוציאים לאור,תל אביב : iCast</t>
+          <t>תל אביב : iCast,אור יהודה : כנרת, זמורה-ביתן, מוציאים לאור</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -5397,12 +5397,12 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>book,audio</t>
+          <t>audio,book</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>The National Library of Israel,$$VThe National Library of Israel$$ONNL_ALEPH21229929680005171</t>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21229929680005171,The National Library of Israel</t>
         </is>
       </c>
     </row>
@@ -5681,7 +5681,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>גוטמן, שרי  (עורך)  $$Qגוטמן, שרי,שטיינבך, יהודה  $$Qשטיינבך, יהודה</t>
+          <t>שטיינבך, יהודה  $$Qשטיינבך, יהודה,גוטמן, שרי  (עורך)  $$Qגוטמן, שרי</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -5691,7 +5691,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12305071450005171,https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE36242723</t>
+          <t>https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE36242723,https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12305071450005171</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -5706,7 +5706,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>book,audio</t>
+          <t>audio,book</t>
         </is>
       </c>
     </row>
@@ -5897,9 +5897,9 @@
           <t>ישמעאל בן אברהם יצחק, הכהן, 1723-1811$$Qישמעאל בן אברהם יצחק, הכהן, 1723-1811</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Responsa; Inheritance and succession (Jewish law)</t>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>20120101</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -5983,7 +5983,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>מאיר, זיו זוהר, 1974-  (דובר)  $$Qמאיר, זיו זוהר, 1974-,פדן, יחיעם, 1947-2021  (מתרגם)  $$Qפדן, יחיעם, 1947-2021</t>
+          <t>פדן, יחיעם, 1947-2021  (מתרגם)  $$Qפדן, יחיעם, 1947-2021,מאיר, זיו זוהר, 1974-  (דובר)  $$Qמאיר, זיו זוהר, 1974-</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -6072,7 +6072,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ז'יונו, ז'ן, 1895-1970$$Qז'יונו, ז'ן, 1895-1970,ז'יונו, ז'ן, 1895-1970 מחבר$$Qז'יונו, ז'ן, 1895-1970</t>
+          <t>ז'יונו, ז'ן, 1895-1970 מחבר$$Qז'יונו, ז'ן, 1895-1970,ז'יונו, ז'ן, 1895-1970$$Qז'יונו, ז'ן, 1895-1970</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -6092,7 +6092,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>book,audio</t>
+          <t>audio,book</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -6124,7 +6124,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>book,audio</t>
+          <t>audio,book</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -6193,17 +6193,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Shtrubel, Marty  (composer lyricist)  $$QShtrubel, Marty,שווימר, יותם, 1985-  (עורך)  $$Qשווימר, יותם, 1985-</t>
+          <t>שווימר, יותם, 1985-  (עורך)  $$Qשווימר, יותם, 1985-,Shtrubel, Marty  (composer lyricist)  $$QShtrubel, Marty</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>סלמן, רועי מחבר דובר$$Qסלמן, רועי,סלמן, רועי מחבר$$Qסלמן, רועי</t>
+          <t>סלמן, רועי מחבר$$Qסלמן, רועי,סלמן, רועי מחבר דובר$$Qסלמן, רועי</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Songs, English -- Israel; Songs, Hebrew -- Israel,Children's stories, Hebrew -- 21st century; Children -- Family relationships -- Juvenile fiction; Bereavement in children -- Juvenile fiction; Teenagers -- Juvenile fiction</t>
+          <t>Children's stories, Hebrew -- 21st century; Children -- Family relationships -- Juvenile fiction; Bereavement in children -- Juvenile fiction; Teenagers -- Juvenile fiction,Songs, English -- Israel; Songs, Hebrew -- Israel</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -6262,7 +6262,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21264748150005171,NNL_ALEPH21227789410005171</t>
+          <t>NNL_ALEPH21227789410005171,NNL_ALEPH21264748150005171</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -6272,12 +6272,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>פייל, הווארד, 1853-1911 מחבר$$Qפייל, הווארד, 1853-1911,פייל, הווארד, 1853-1911$$Qפייל, הווארד, 1853-1911</t>
+          <t>פייל, הווארד, 1853-1911$$Qפייל, הווארד, 1853-1911,פייל, הווארד, 1853-1911 מחבר$$Qפייל, הווארד, 1853-1911</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Children's stories, English -- Translations into Hebrew,Robin Hood (Legendary character) -- Juvenile literature; Children's stories, American -- 19th century; Children's stories -- Translations into Hebrew</t>
+          <t>Robin Hood (Legendary character) -- Juvenile literature; Children's stories, American -- 19th century; Children's stories -- Translations into Hebrew,Children's stories, English -- Translations into Hebrew</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -6287,12 +6287,12 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>205 עמודים ; 21 ס"מ.,190, [2] עמודים : איורים ; 23 ס"מ.</t>
+          <t>190, [2] עמודים : איורים ; 23 ס"מ.,205 עמודים ; 21 ס"מ.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>19890101,20150101</t>
+          <t>20150101,19890101</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -6307,7 +6307,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>990038767070205171,990010951140205171</t>
+          <t>990010951140205171,990038767070205171</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -6443,7 +6443,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>המפה של כל המקומות / קארי ראיין, ג'ון פארקי דיוויס ; מאנגלית: נעה סמלסון.,העיר הצמאה / קארי ראיין וג'ון פארקי דיוויס ; איורים: טוד האריס ; מאנגלית: נעה בן פורת.</t>
+          <t>העיר הצמאה / קארי ראיין וג'ון פארקי דיוויס ; איורים: טוד האריס ; מאנגלית: נעה בן פורת.,המפה של כל המקומות / קארי ראיין, ג'ון פארקי דיוויס ; מאנגלית: נעה סמלסון.</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -6453,7 +6453,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21277600080005171,NNL_ALEPH21217720790005171</t>
+          <t>NNL_ALEPH21217720790005171,NNL_ALEPH21277600080005171</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -6468,12 +6468,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Children's stories, American -- 21st century; Children's stories -- Translations into Hebrew; Pirates -- Juvenile fiction; Wizards -- Juvenile fiction,Children's stories, American -- 21st century; Children's stories, English -- Translations into Hebrew; Adventure stories; Pirates -- Juvenile fiction; Wizards -- Juvenile fiction</t>
+          <t>Children's stories, American -- 21st century; Children's stories, English -- Translations into Hebrew; Adventure stories; Pirates -- Juvenile fiction; Wizards -- Juvenile fiction,Children's stories, American -- 21st century; Children's stories -- Translations into Hebrew; Pirates -- Juvenile fiction; Wizards -- Juvenile fiction</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12304876730005171,https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12304196550005171</t>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12304196550005171,https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12304876730005171</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -6498,7 +6498,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>990039486720205171,990038441580205171</t>
+          <t>990038441580205171,990039486720205171</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -6520,17 +6520,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>צור, רותם  (דובר)  $$Qצור, רותם,גובר, יעל  (עורך)  $$Qגובר, יעל</t>
+          <t>גובר, יעל  (עורך)  $$Qגובר, יעל,צור, רותם  (דובר)  $$Qצור, רותם</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21229929680005171,NNL_ALEPH11375561980005171</t>
+          <t>NNL_ALEPH11375561980005171,NNL_ALEPH21229929680005171</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH11375561980005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21229929680005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21229929680005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH11375561980005171</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -6550,7 +6550,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>1 מקור מקוון.,251 עמודים, 2 עמודים לא ממוספרים ; 21 ס"מ.</t>
+          <t>251 עמודים, 2 עמודים לא ממוספרים ; 21 ס"מ.,1 מקור מקוון.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -6560,7 +6560,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>אור יהודה : כנרת, זמורה-ביתן, מוציאים לאור,תל אביב : iCast</t>
+          <t>תל אביב : iCast,אור יהודה : כנרת, זמורה-ביתן, מוציאים לאור</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -6575,12 +6575,12 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>book,audio</t>
+          <t>audio,book</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>The National Library of Israel,$$VThe National Library of Israel$$ONNL_ALEPH21229929680005171</t>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21229929680005171,The National Library of Israel</t>
         </is>
       </c>
     </row>
@@ -6874,7 +6874,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE74060774,https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE4970178</t>
+          <t>https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE4970178,https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE74060774</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -7030,7 +7030,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>book,audio</t>
+          <t>audio,book</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -7119,7 +7119,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NNL_ALEPH11375550340005171,NNL_ALEPH21266510900005171</t>
+          <t>NNL_ALEPH21266510900005171,NNL_ALEPH11375550340005171</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -7154,7 +7154,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>רמת השרון : הוצאת אסיה,תל אביב : iCast</t>
+          <t>תל אביב : iCast,רמת השרון : הוצאת אסיה</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -7164,12 +7164,12 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>990038574840205171,990048845120205171</t>
+          <t>990048845120205171,990038574840205171</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>book,audio</t>
+          <t>audio,book</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -7340,7 +7340,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>book,audio</t>
+          <t>audio,book</t>
         </is>
       </c>
     </row>
@@ -7357,7 +7357,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21223876190005171,NNL_ALEPH21280242840005171</t>
+          <t>NNL_ALEPH21280242840005171,NNL_ALEPH21223876190005171</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -7377,7 +7377,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12304207220005171,https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12305033570005171</t>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12305033570005171,https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12304207220005171</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -7402,7 +7402,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>990039436920205171,990038535410205171</t>
+          <t>990038535410205171,990039436920205171</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -7412,7 +7412,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$$VThe National Library of Israel$$ONNL_ALEPH21280242840005171,$$VThe National Library of Israel$$ONNL_ALEPH21223876190005171</t>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21223876190005171,$$VThe National Library of Israel$$ONNL_ALEPH21280242840005171</t>
         </is>
       </c>
     </row>
@@ -7424,7 +7424,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>תגרי, אהוד  $$Qתגרי, אהוד,Ben-David, Mor  $$QBen-David, Mor</t>
+          <t>Ben-David, Mor  $$QBen-David, Mor,תגרי, אהוד  $$Qתגרי, אהוד</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -7476,7 +7476,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>ירושלים : כתר ספרים,מושב בן שמן : כתר</t>
+          <t>מושב בן שמן : כתר,ירושלים : כתר ספרים</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -7756,7 +7756,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21280240300005171,NNL_ALEPH21248728050005171</t>
+          <t>NNL_ALEPH21248728050005171,NNL_ALEPH21280240300005171</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -7766,7 +7766,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>לי, הרפר, 1926-2016 מחבר$$Qלי, הרפר, 1926-2016,לשם-עזרא, דנה$$Qלשם-עזרא, דנה</t>
+          <t>לשם-עזרא, דנה$$Qלשם-עזרא, דנה,לי, הרפר, 1926-2016 מחבר$$Qלי, הרפר, 1926-2016</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -7806,7 +7806,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>$$VThe National Library of Israel$$ONNL_ALEPH21280240300005171,The National Library of Israel</t>
+          <t>The National Library of Israel,$$VThe National Library of Israel$$ONNL_ALEPH21280240300005171</t>
         </is>
       </c>
     </row>
@@ -8073,7 +8073,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>מען לא ידוע / קרסמן טיילור ; מאנגלית - אשר טרמון.,מען לא ידוע : ועוד ארבעה עשר סיפורים / חיים גרינבוים.</t>
+          <t>מען לא ידוע : ועוד ארבעה עשר סיפורים / חיים גרינבוים.,מען לא ידוע / קרסמן טיילור ; מאנגלית - אשר טרמון.</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -8093,7 +8093,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>טילור, קרסמן, 1903-1996$$Qטילור, קרסמן, 1903-1996,גרינבוים, חיים, 1966- מחבר$$Qגרינבוים, חיים, 1966-</t>
+          <t>גרינבוים, חיים, 1966- מחבר$$Qגרינבוים, חיים, 1966-,טילור, קרסמן, 1903-1996$$Qטילור, קרסמן, 1903-1996</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -8108,7 +8108,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>314 עמודים ; 22 ס"מ,64 עמודים ; 21 ס"מ.</t>
+          <t>64 עמודים ; 21 ס"מ.,314 עמודים ; 22 ס"מ</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -8123,7 +8123,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>997008606225705171,990021030590205171</t>
+          <t>990021030590205171,997008606225705171</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -8318,7 +8318,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE74060774,https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE4970178</t>
+          <t>https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE4970178,https://rosetta.nli.org.il/delivery/DeliveryManagerServlet?dps_func=thumbnail&amp;dps_pid=IE74060774</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -8474,7 +8474,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>book,audio</t>
+          <t>audio,book</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -8635,7 +8635,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NNL_ALEPH11375550340005171,NNL_ALEPH21266510900005171</t>
+          <t>NNL_ALEPH21266510900005171,NNL_ALEPH11375550340005171</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -8670,7 +8670,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>רמת השרון : הוצאת אסיה,תל אביב : iCast</t>
+          <t>תל אביב : iCast,רמת השרון : הוצאת אסיה</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -8680,12 +8680,12 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>990038574840205171,990048845120205171</t>
+          <t>990048845120205171,990038574840205171</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>book,audio</t>
+          <t>audio,book</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -8712,7 +8712,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH71270277270005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21216038180005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21216038180005171,https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH71270277270005171</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -8737,12 +8737,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>20160101,20180101</t>
+          <t>20180101,20160101</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>ירושלים : כתר,תל אביב : iCast</t>
+          <t>תל אביב : iCast,ירושלים : כתר</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -8752,17 +8752,17 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>990048966920205171,990039259480205171</t>
+          <t>990039259480205171,990048966920205171</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>book,audio</t>
+          <t>audio,book</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$$VThe National Library of Israel$$ONNL_ALEPH21216038180005171,The National Library of Israel</t>
+          <t>The National Library of Israel,$$VThe National Library of Israel$$ONNL_ALEPH21216038180005171</t>
         </is>
       </c>
     </row>
@@ -8856,7 +8856,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>book,audio</t>
+          <t>audio,book</t>
         </is>
       </c>
     </row>
@@ -8873,7 +8873,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21223876190005171,NNL_ALEPH21280242840005171</t>
+          <t>NNL_ALEPH21280242840005171,NNL_ALEPH21223876190005171</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -8893,7 +8893,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12304207220005171,https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12305033570005171</t>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12305033570005171,https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12304207220005171</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -8918,7 +8918,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>990039436920205171,990038535410205171</t>
+          <t>990038535410205171,990039436920205171</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -8928,7 +8928,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$$VThe National Library of Israel$$ONNL_ALEPH21280242840005171,$$VThe National Library of Israel$$ONNL_ALEPH21223876190005171</t>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21223876190005171,$$VThe National Library of Israel$$ONNL_ALEPH21280242840005171</t>
         </is>
       </c>
     </row>
@@ -8940,7 +8940,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>תגרי, אהוד  $$Qתגרי, אהוד,Ben-David, Mor  $$QBen-David, Mor</t>
+          <t>Ben-David, Mor  $$QBen-David, Mor,תגרי, אהוד  $$Qתגרי, אהוד</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -8992,7 +8992,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>ירושלים : כתר ספרים,מושב בן שמן : כתר</t>
+          <t>מושב בן שמן : כתר,ירושלים : כתר ספרים</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -9029,7 +9029,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>1 מקור מקוון.,319 עמודים ; 21 ס"מ.</t>
+          <t>319 עמודים ; 21 ס"מ.,1 מקור מקוון.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -9123,7 +9123,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21280240300005171,NNL_ALEPH21248728050005171</t>
+          <t>NNL_ALEPH21248728050005171,NNL_ALEPH21280240300005171</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -9133,7 +9133,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>לי, הרפר, 1926-2016 מחבר$$Qלי, הרפר, 1926-2016,לשם-עזרא, דנה$$Qלשם-עזרא, דנה</t>
+          <t>לשם-עזרא, דנה$$Qלשם-עזרא, דנה,לי, הרפר, 1926-2016 מחבר$$Qלי, הרפר, 1926-2016</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -9173,7 +9173,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>$$VThe National Library of Israel$$ONNL_ALEPH21280240300005171,The National Library of Israel</t>
+          <t>The National Library of Israel,$$VThe National Library of Israel$$ONNL_ALEPH21280240300005171</t>
         </is>
       </c>
     </row>
@@ -9185,7 +9185,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>אלפון, מיכל  (מתרגם)  $$Qאלפון, מיכל,אבן עזרא, משה בן יעקב, 1055-1140  $$Qאבן עזרא, משה בן יעקב, 1055-1140</t>
+          <t>אבן עזרא, משה בן יעקב, 1055-1140  $$Qאבן עזרא, משה בן יעקב, 1055-1140,אלפון, מיכל  (מתרגם)  $$Qאלפון, מיכל</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -9230,7 +9230,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>The National Library of Israel,$$VThe National Library of Israel$$ONNL_ALEPH21233910000005171</t>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21233910000005171,The National Library of Israel</t>
         </is>
       </c>
     </row>
@@ -9445,7 +9445,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>מען לא ידוע / קרסמן טיילור ; מאנגלית - אשר טרמון.,מען לא ידוע : ועוד ארבעה עשר סיפורים / חיים גרינבוים.</t>
+          <t>מען לא ידוע : ועוד ארבעה עשר סיפורים / חיים גרינבוים.,מען לא ידוע / קרסמן טיילור ; מאנגלית - אשר טרמון.</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -9465,7 +9465,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>טילור, קרסמן, 1903-1996$$Qטילור, קרסמן, 1903-1996,גרינבוים, חיים, 1966- מחבר$$Qגרינבוים, חיים, 1966-</t>
+          <t>גרינבוים, חיים, 1966- מחבר$$Qגרינבוים, חיים, 1966-,טילור, קרסמן, 1903-1996$$Qטילור, קרסמן, 1903-1996</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -9480,7 +9480,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>314 עמודים ; 22 ס"מ,64 עמודים ; 21 ס"מ.</t>
+          <t>64 עמודים ; 21 ס"מ.,314 עמודים ; 22 ס"מ</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -9495,7 +9495,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>997008606225705171,990021030590205171</t>
+          <t>990021030590205171,997008606225705171</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">

--- a/excel/2017.xlsx
+++ b/excel/2017.xlsx
@@ -717,7 +717,72 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>איך לתפוס כוכב / ג'פרס אוליבר</t>
+          <t>איך לתפס כוכב / אוליבר ג'פרס ; [מאנגלית - תמי קרמר].</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>קרמר, תמי  $$Qקרמר, תמי</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21194250890005171</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21194250890005171</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ג'פרס, אוליבר$$Qג'פרס, אוליבר</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Children's stories, English -- Translations into Hebrew</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[31] עמודים : איורים צבעוניים ; 28 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>20060101</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ירושלים : כתר</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>990025492990205171</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
         </is>
       </c>
     </row>
@@ -1516,52 +1581,52 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>תנין קטן ורגש לו גדול / דניאלה קולוט ; תרגם מגרמנית: דובי לנץ.</t>
+          <t>תנין קטן ורגש לו גדול / דניאלה קולוט ; מגרמנית - דובי לנץ.</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>לנץ, דובי, 1947-2023  (מתרגם)  $$Qלנץ, דובי, 1947-2023</t>
+          <t>לנץ, דובי, 1947-2023  $$Qלנץ, דובי, 1947-2023</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21178527970005171</t>
+          <t>NNL_ALEPH21201785370005171</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21178527970005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21201785370005171</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>קולוט-פריש, דניאלה מחבר$$Qקולוט-פריש, דניאלה</t>
+          <t>קולוט-פריש, דניאלה$$Qקולוט-פריש, דניאלה</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Children's stories, German -- Translations into Hebrew; Crocodiles -- Juvenile fiction; Giraffe -- Juvenile fiction; Board books</t>
+          <t>Children's stories -- Translations into Hebrew</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12303619400005171</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>24 עמודים לא ממוספרים : איורים צבעוניים ; 23 ס"מ.</t>
+          <t>[28] דפים : איורים צבעוניים ; 31 ס"מ.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>[2018]</t>
+          <t>תשס"ב 2001</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>מושב בן-שמן : כתר</t>
+          <t>אור יהודה : ספרית מעריב</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1571,7 +1636,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>990043969060205171</t>
+          <t>990021870070205171</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -1581,7 +1646,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$$VThe National Library of Israel$$ONNL_ALEPH21178527970005171</t>
+          <t>The National Library of Israel</t>
         </is>
       </c>
     </row>
@@ -2044,17 +2109,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>אדולפי, חנה  $$Qאדולפי, חנה</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21242740090005171</t>
+          <t>NNL_ALEPH21246480080005171</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21242740090005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21246480080005171</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -2079,7 +2144,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>תשמ"ה 1985</t>
+          <t>[1964]</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -2094,7 +2159,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>990029188780205171</t>
+          <t>990011393230205171</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -2687,7 +2752,72 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ספרי הבית המשותף / הראל נירה</t>
+          <t>ספורי הבית המשותף / נירה הראל ; ציורים ועטיפה: מישל קישקה.</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>קישקה, מישל, 1954-  (מאייר)  $$Qקישקה, מישל, 1954-</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21261425630005171</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21261425630005171</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>הראל, נירה, 1936- מחבר$$Qהראל, נירה, 1936-</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Children's stories, Hebrew -- 21st century; Apartment houses -- Juvenile fiction; Neighbors -- Juvenile fiction</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12304532790005171</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>96 עמודים : איורים ; 23 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>[2016]</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ירושלים : בית הוצאה לאור כתר</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>990038896300205171</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21261425630005171</t>
         </is>
       </c>
     </row>
@@ -4009,7 +4139,72 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>הנער מסביליה / אורגד דורית</t>
+          <t>הנער מסיביליה / דורית אורגד.</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21239315140005171</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21239315140005171</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>אורגד, דורית, 1936-$$Qאורגד, דורית, 1936-</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Inquisition -- Spain -- Juvenile fiction; Crypto-Jews -- Spain -- Juvenile fiction; Jews -- Spain -- History -- 17th century -- Juvenile fiction</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>151 עמודים : איורים ; 23 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>[1984]</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ירושלים : מרכז זלמן שזר</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>990003464330205171</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
         </is>
       </c>
     </row>
@@ -5024,14 +5219,144 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>שרלוק הולמס והפרחחים מרחוב בייקר-הזלינדאים המופלאים / סיטרין מייקל ומק טרייסי</t>
+          <t>הזלינדאים המופלאים / טרייסי מק ומייקל סיטרין ; מאנגלית - אורי בלסם ; [איורים - גרג רות].</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>סיטרין, מייקל  $$Qסיטרין, מייקל</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21208422830005171</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21208422830005171</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>מק, טרייסי$$Qמק, טרייסי</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Holmes, Sherlock -- Juvenile fiction; Children's stories, American -- 21st century; Children's stories -- Translations into Hebrew; Children -- Societies and clubs -- England -- London -- Juvenile fiction; Detective and mystery stories</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>22 עמודים : איורים ; 21 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>20110101</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>תל אביב : מטר</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>990031553030205171</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>קובץ סיפורים / עגנון ש"י</t>
+          <t>מבחר סיפורים.</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH71483855330005171</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH71483855330005171</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>עגנון, שמואל יוסף, 1888-1970$$Qעגנון, שמואל יוסף, 1888-1970</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>תשל"ט - 1978</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>שוקן</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>997011416124505171</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>The National Library of Israel</t>
         </is>
       </c>
     </row>
@@ -5705,7 +6030,72 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>היורשים / דה לה קרוז מליסה</t>
+          <t>אי האבודים / מליסה דה לה קרוז ; מאנגלית: יעל ענבר ; עריכת התרגום: רתם כסלו.</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ענבר, יעל  (מתרגם)  $$Qענבר, יעל</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21222982620005171</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21222982620005171</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>דה לה קרוז, מליסה, 1971- מחבר$$Qדה לה קרוז, מליסה, 1971-</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Children's stories, American -- 21st century; Children's stories -- Translations into Hebrew; Fantasy -- Juvenile fiction; Penal colonies -- Juvenile fiction; Good and evil -- Juvenile fiction; Magic -- Juvenile fiction</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12305007840005171</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>328 עמודים ; 21 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>20150101</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>תל אביב : משכל - הוצאה לאור מיסודן של ידיעות אחרונות וספרי חמד</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>990038534640205171</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21222982620005171</t>
         </is>
       </c>
     </row>
@@ -7531,7 +7921,72 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>היורשים / דה לה קרוז מליסה</t>
+          <t>אי האבודים / מליסה דה לה קרוז ; מאנגלית: יעל ענבר ; עריכת התרגום: רתם כסלו.</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ענבר, יעל  (מתרגם)  $$Qענבר, יעל</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>NNL_ALEPH21222982620005171</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21222982620005171</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>דה לה קרוז, מליסה, 1971- מחבר$$Qדה לה קרוז, מליסה, 1971-</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Children's stories, American -- 21st century; Children's stories -- Translations into Hebrew; Fantasy -- Juvenile fiction; Penal colonies -- Juvenile fiction; Good and evil -- Juvenile fiction; Magic -- Juvenile fiction</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12305007840005171</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>328 עמודים ; 21 ס"מ.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>20150101</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>תל אביב : משכל - הוצאה לאור מיסודן של ידיעות אחרונות וספרי חמד</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>heb</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>990038534640205171</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21222982620005171</t>
         </is>
       </c>
     </row>
@@ -10149,27 +10604,27 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>בואי הרוח / חיים סבתו ; עורך: יהודה מלצר.</t>
+          <t>בואי הרוח / חיים סבתו ; [עורך - יהודה מלצר].</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>מלצר, יהודה, 1940-  (עורך)  $$Qמלצר, יהודה, 1940-</t>
+          <t>מלצר, יהודה, 1940-  $$Qמלצר, יהודה, 1940-</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21485172800005171</t>
+          <t>NNL_ALEPH21192466020005171</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21485172800005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21192466020005171</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>סבתו, חיים, 1952- מחבר$$Qסבתו, חיים, 1952-</t>
+          <t>סבתו, חיים, 1952-$$Qסבתו, חיים, 1952-</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -10179,22 +10634,22 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12493665940005171</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>169 עמודים ; 21 ס"מ.</t>
+          <t>162 עמודים ; 21 ס"מ.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>תשפ"ג 2022</t>
+          <t>20080101</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>תל אביב : ספרי עליית הגג ; ראשון לציון, משכל - הוצאה לאור מיסודן של ידיעות אחרונות וספרי חמד</t>
+          <t>תל אביב : ספרי עלית הגג</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -10204,7 +10659,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>997011536200105171</t>
+          <t>990025862870205171</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -10214,7 +10669,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$$VThe National Library of Israel$$ONNL_ALEPH21485172800005171</t>
+          <t>The National Library of Israel</t>
         </is>
       </c>
     </row>
@@ -10293,62 +10748,62 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>אובך וערפל / רהב עמוסי ; איורים: אלי יעקב.</t>
+          <t>אובך / יורם עבר-הדני ; עורכת הספר: שירה חדד.</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>יעקב, אלי  (מאייר)  $$Qיעקב, אלי</t>
+          <t>חדד, שירה  (עורך)  $$Qחדד, שירה</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21280252190005171</t>
+          <t>NNL_ALEPH21193648930005171</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21280252190005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21193648930005171</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>עמוסי, רהב מחבר$$Qעמוסי, רהב</t>
+          <t>עבר-הדני, יורם מחבר$$Qעבר-הדני, יורם</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Children's stories, Hebrew -- 21st century; Detective and mystery stories; Yemenis -- Israel -- Fiction; Wit and humor, Juvenile</t>
+          <t>Families -- Israel -- Fiction; Fathers and sons -- Fiction; Siblings -- Fiction; Secrets -- Fiction; Life change events -- Fiction</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12305073960005171</t>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12304401460005171</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>295, 156 עמודים : איורים, מפה ; 21 ס"מ.</t>
+          <t>413 עמודים ; 21 ס"מ.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>תשע"ה 2015</t>
+          <t>20150101</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>אזור : ספרי צמרת</t>
+          <t>ירושלים : כתר</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>heb;eng</t>
+          <t>heb</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>990038536110205171</t>
+          <t>990038696590205171</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -10358,7 +10813,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>$$VThe National Library of Israel$$ONNL_ALEPH21280252190005171</t>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21193648930005171</t>
         </is>
       </c>
     </row>
@@ -11896,27 +12351,27 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>בואי הרוח / חיים סבתו ; עורך: יהודה מלצר.</t>
+          <t>בואי הרוח / חיים סבתו ; [עורך - יהודה מלצר].</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>מלצר, יהודה, 1940-  (עורך)  $$Qמלצר, יהודה, 1940-</t>
+          <t>מלצר, יהודה, 1940-  $$Qמלצר, יהודה, 1940-</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21485172800005171</t>
+          <t>NNL_ALEPH21192466020005171</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21485172800005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21192466020005171</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>סבתו, חיים, 1952- מחבר$$Qסבתו, חיים, 1952-</t>
+          <t>סבתו, חיים, 1952-$$Qסבתו, חיים, 1952-</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -11926,22 +12381,22 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12493665940005171</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>169 עמודים ; 21 ס"מ.</t>
+          <t>162 עמודים ; 21 ס"מ.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>תשפ"ג 2022</t>
+          <t>20080101</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>תל אביב : ספרי עליית הגג ; ראשון לציון, משכל - הוצאה לאור מיסודן של ידיעות אחרונות וספרי חמד</t>
+          <t>תל אביב : ספרי עלית הגג</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -11951,7 +12406,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>997011536200105171</t>
+          <t>990025862870205171</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -11961,69 +12416,69 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$$VThe National Library of Israel$$ONNL_ALEPH21485172800005171</t>
+          <t>The National Library of Israel</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>אובך וערפל / רהב עמוסי ; איורים: אלי יעקב.</t>
+          <t>אובך / יורם עבר-הדני ; עורכת הספר: שירה חדד.</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>יעקב, אלי  (מאייר)  $$Qיעקב, אלי</t>
+          <t>חדד, שירה  (עורך)  $$Qחדד, שירה</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>NNL_ALEPH21280252190005171</t>
+          <t>NNL_ALEPH21193648930005171</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21280252190005171</t>
+          <t>https://merhav.nli.org.il/primo-explore/sourceRecord?vid=NLI&amp;docId=NNL_ALEPH21193648930005171</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>עמוסי, רהב מחבר$$Qעמוסי, רהב</t>
+          <t>עבר-הדני, יורם מחבר$$Qעבר-הדני, יורם</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Children's stories, Hebrew -- 21st century; Detective and mystery stories; Yemenis -- Israel -- Fiction; Wit and humor, Juvenile</t>
+          <t>Families -- Israel -- Fiction; Fathers and sons -- Fiction; Siblings -- Fiction; Secrets -- Fiction; Life change events -- Fiction</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12305073960005171</t>
+          <t>https://nli.alma.exlibrisgroup.com/view/delivery/thumbnail/12304401460005171</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>295, 156 עמודים : איורים, מפה ; 21 ס"מ.</t>
+          <t>413 עמודים ; 21 ס"מ.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>תשע"ה 2015</t>
+          <t>20150101</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>אזור : ספרי צמרת</t>
+          <t>ירושלים : כתר</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>heb;eng</t>
+          <t>heb</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>990038536110205171</t>
+          <t>990038696590205171</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -12033,7 +12488,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$$VThe National Library of Israel$$ONNL_ALEPH21280252190005171</t>
+          <t>$$VThe National Library of Israel$$ONNL_ALEPH21193648930005171</t>
         </is>
       </c>
     </row>
